--- a/public/pricing.xlsx
+++ b/public/pricing.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12132"/>
   </bookViews>
   <sheets>
-    <sheet name="Wedding &amp; Tiered Cakes" sheetId="1" r:id="rId1"/>
+    <sheet name="Wedding &amp; Tiered Cakes" sheetId="6" r:id="rId1"/>
     <sheet name="Sculpted Cakes" sheetId="2" r:id="rId2"/>
     <sheet name="Cupcakes" sheetId="3" r:id="rId3"/>
     <sheet name="Cake Bites" sheetId="4" r:id="rId4"/>
     <sheet name="Delivery Fees" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -406,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -414,38 +409,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="49.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -457,9 +445,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -485,9 +473,9 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -523,9 +511,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -542,11 +530,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="64" bestFit="1" customWidth="1"/>
   </cols>

--- a/public/pricing.xlsx
+++ b/public/pricing.xlsx
@@ -90,18 +90,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,12 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,23 +403,26 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -451,12 +445,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -479,17 +473,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -540,12 +534,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -555,7 +549,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
